--- a/Assets/Excel/ExcelFiles/ModuleExcel.xlsx
+++ b/Assets/Excel/ExcelFiles/ModuleExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\EmergencyRoulette\Assets\Excel\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E5F904-CEE2-4DDB-A947-25042BCF424A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9444FEEF-F826-4F90-A378-3E10D88B951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{F766AC6C-7D2B-445A-B673-F270C9ECD0EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>moduleName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>AddCombo_TechDecayDecay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레인 스토밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 식량 사용, 데이터 2 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseDataByFood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90C9027-148A-4DB4-B6C3-63AD34C2AD03}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -832,44 +844,47 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -878,6 +893,23 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
     </row>
